--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C17A61-0434-4383-BC7A-16693D062092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD695AF-776C-43B5-A94C-68E8383FD617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primera Competencia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>N° intento</t>
   </si>
@@ -63,13 +60,54 @@
   </si>
   <si>
     <t>Media</t>
+  </si>
+  <si>
+    <t>Primer Modelo dado en clase 1, con calculo propio previo de "clase_ternaria"</t>
+  </si>
+  <si>
+    <t>Segunda mejor solución del gridsearch propio de la clase 2</t>
+  </si>
+  <si>
+    <t>Primer mejor solución del gridsearch propio de la clase 2</t>
+  </si>
+  <si>
+    <t>Tercer mejor solución del gridsearch propio de la clase 2</t>
+  </si>
+  <si>
+    <t>Cuarta mejor solución del gridsearch propio de la clase 2</t>
+  </si>
+  <si>
+    <t>Quinta mejor solución del gridsearch propio de la clase 2</t>
+  </si>
+  <si>
+    <t>Primer mejor optimización bayesiana de la clase 3</t>
+  </si>
+  <si>
+    <t>Segunda mejor optimización bayesiana de la clase 3</t>
+  </si>
+  <si>
+    <t>Tercera mejor optimización bayesiana de la clase 3</t>
+  </si>
+  <si>
+    <t>Cuarta mejor optimización bayesiana de la clase 3</t>
+  </si>
+  <si>
+    <t>Quinta mejor optimización bayesiana de la clase 3</t>
+  </si>
+  <si>
+    <t>Competencia_01 (mal solución)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="175" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +126,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,17 +164,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +211,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -189,64 +226,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -305,6 +429,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040181097906052"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -314,9 +446,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1224136286869065"/>
-          <c:y val="0.11218823056953946"/>
-          <c:w val="0.85425682570663386"/>
+          <c:x val="8.8457771301507518E-2"/>
+          <c:y val="0.13040316681726261"/>
+          <c:w val="0.87915778778925979"/>
           <c:h val="0.79354531503234227"/>
         </c:manualLayout>
       </c:layout>
@@ -328,7 +460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Primera Competencia'!$C$1</c:f>
+              <c:f>'Primera Competencia'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -349,21 +481,21 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Primera Competencia'!$A$3:$A$20</c:f>
+              <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -384,35 +516,74 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Primera Competencia'!$C$3:$C$20</c:f>
+              <c:f>'Primera Competencia'!$D$3:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>86.258667000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.194666999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.471333000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>82.195400000000006</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>73.354399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000">
+                  <c:v>66.252200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>80.047799999999995</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>66.299800000000005</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>67.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>66.206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>64.134</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>63.821333000000003</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>63.821333000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -428,7 +599,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Primera Competencia'!$D$1:$D$2</c:f>
+              <c:f>'Primera Competencia'!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -438,26 +609,33 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Primera Competencia'!$A$3:$A$20</c:f>
+              <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -478,35 +656,74 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Primera Competencia'!$D$3:$D$20</c:f>
+              <c:f>'Primera Competencia'!$E$3:$E$19</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>21.746500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.359639999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.932929999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.932929999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.933160000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.792990000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.792990000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.746319999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.286369999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.086289999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.449649999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.226289999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.809620000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.926279999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.926279999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -556,7 +773,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -586,6 +803,7 @@
         <c:axId val="1819361754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -642,9 +860,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10708126679411253"/>
-          <c:y val="0.64983118913414517"/>
-          <c:w val="0.35472552348613468"/>
+          <c:x val="0.62321029905217695"/>
+          <c:y val="0.16531388494470975"/>
+          <c:w val="0.34567062818336158"/>
           <c:h val="0.19035669721612672"/>
         </c:manualLayout>
       </c:layout>
@@ -687,9 +905,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>45062</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>203385</xdr:rowOff>
+      <xdr:colOff>371633</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>153039</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="3486150"/>
     <xdr:graphicFrame macro="">
@@ -718,267 +936,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Scores"/>
-      <sheetName val="Desc 8"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Score Interno</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Score 
-Kaggle Público</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="C3">
-            <v>181479.61199999999</v>
-          </cell>
-          <cell r="E3">
-            <v>482297.00244000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="C4">
-            <v>368715</v>
-          </cell>
-          <cell r="E4">
-            <v>379887.85772999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="C5">
-            <v>362382.08000000002</v>
-          </cell>
-          <cell r="E5">
-            <v>385892.69183000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-          <cell r="C6">
-            <v>361055.59</v>
-          </cell>
-          <cell r="E6">
-            <v>350988.34247999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="C7">
-            <v>355343.125</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-          <cell r="C8">
-            <v>355343.125</v>
-          </cell>
-          <cell r="E8">
-            <v>337127.42025000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-          <cell r="C9">
-            <v>355706.84</v>
-          </cell>
-          <cell r="E9">
-            <v>326602.31211</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-          <cell r="C10">
-            <v>206971.00034999999</v>
-          </cell>
-          <cell r="E10">
-            <v>292717.02097000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-          <cell r="C11">
-            <v>197664.178224</v>
-          </cell>
-          <cell r="E11">
-            <v>288474.54806</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10</v>
-          </cell>
-          <cell r="C12">
-            <v>181281.26761499999</v>
-          </cell>
-          <cell r="E12">
-            <v>293267.41545999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>11</v>
-          </cell>
-          <cell r="C13">
-            <v>196290.035787</v>
-          </cell>
-          <cell r="E13">
-            <v>343964.17249000003</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>12</v>
-          </cell>
-          <cell r="C14">
-            <v>195926.92042800001</v>
-          </cell>
-          <cell r="E14">
-            <v>270515.16723999998</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>13</v>
-          </cell>
-          <cell r="C15">
-            <v>124944.0088</v>
-          </cell>
-          <cell r="E15">
-            <v>263115.08863000001</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>14</v>
-          </cell>
-          <cell r="C16">
-            <v>124463.86870000001</v>
-          </cell>
-          <cell r="E16">
-            <v>263620.96798000002</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>15</v>
-          </cell>
-          <cell r="C17">
-            <v>124590.84790000001</v>
-          </cell>
-          <cell r="E17">
-            <v>264625.90292000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>16</v>
-          </cell>
-          <cell r="C18">
-            <v>123408.35410000001</v>
-          </cell>
-          <cell r="E18">
-            <v>264385.65292999998</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>282435.61959999998</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>17</v>
-          </cell>
-          <cell r="C20">
-            <v>124551.16690000001</v>
-          </cell>
-          <cell r="E20">
-            <v>261682.44393000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>18</v>
-          </cell>
-          <cell r="C21">
-            <v>143637.36582000001</v>
-          </cell>
-          <cell r="E21">
-            <v>257929.88394999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>19</v>
-          </cell>
-          <cell r="C22">
-            <v>124574.9755</v>
-          </cell>
-          <cell r="E22">
-            <v>261528.52565</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>20</v>
-          </cell>
-          <cell r="C23">
-            <v>157182.46779999998</v>
-          </cell>
-          <cell r="E23">
-            <v>246223.50802000001</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>21</v>
-          </cell>
-          <cell r="C24">
-            <v>41055.4127587857</v>
-          </cell>
-          <cell r="E24">
-            <v>271992.22272000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,249 +1201,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10:L11"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.5703125" style="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1"/>
+    <col min="3" max="3" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="22">
+        <v>34.41639</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="35">
+        <v>86.258667000000003</v>
+      </c>
+      <c r="E4" s="23">
+        <v>21.746500000000001</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="36">
+        <v>85.194666999999995</v>
+      </c>
+      <c r="E5" s="24">
+        <v>45.359639999999999</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="36">
+        <v>85.134</v>
+      </c>
+      <c r="E6" s="24">
+        <v>49.932929999999999</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="37">
+        <v>85.134</v>
+      </c>
+      <c r="E7" s="24">
+        <v>49.932929999999999</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="38">
+        <v>84.471333000000001</v>
+      </c>
+      <c r="E8" s="25">
+        <v>21.933160000000001</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="31">
+        <v>82.195400000000006</v>
+      </c>
+      <c r="E9" s="23">
+        <v>42.792990000000003</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="32">
+        <v>73.354399999999998</v>
+      </c>
+      <c r="E10" s="24">
+        <v>42.792990000000003</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="32">
+        <v>66.252200000000002</v>
+      </c>
+      <c r="E11" s="24">
+        <v>42.746319999999997</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="33">
+        <v>80.047799999999995</v>
+      </c>
+      <c r="E12" s="24">
+        <v>37.286369999999998</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="34">
+        <v>66.299800000000005</v>
+      </c>
+      <c r="E13" s="25">
+        <v>47.086289999999998</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="22">
+        <v>40.273009999999999</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="31">
+        <v>67.213999999999999</v>
+      </c>
+      <c r="E15" s="23">
+        <v>44.449649999999998</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="32">
+        <v>66.206000000000003</v>
+      </c>
+      <c r="E16" s="24">
+        <v>47.226289999999999</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="32">
+        <v>64.134</v>
+      </c>
+      <c r="E17" s="24">
+        <v>47.809620000000002</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="C18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="33">
+        <v>63.821333000000003</v>
+      </c>
+      <c r="E18" s="24">
+        <v>47.926279999999998</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="21">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="C19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="34">
+        <v>63.821333000000003</v>
+      </c>
+      <c r="E19" s="25">
+        <v>47.926279999999998</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="21">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD695AF-776C-43B5-A94C-68E8383FD617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215E82A8-987B-4CBA-9CD2-A3CE00F5C10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,11 +103,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -257,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -269,107 +275,101 @@
     <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -900,14 +900,987 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.25083333333333335"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.66144211140274134"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Primera Competencia'!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Diferencia
+(Media Interno - Kaggle)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$B$3:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$F$3:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64.512167000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.835026999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.201070000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.201070000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.538173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.402410000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.561409999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.505880000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.761429999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.213510000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.76435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.979710000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.324379999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.895053000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.895053000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.991100000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.9589</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.941400000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.938599999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.929500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4509-428F-A474-BEB4CB284377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="394018976"/>
+        <c:axId val="429623952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394018976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429623952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429623952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394018976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30381583552055991"/>
+          <c:y val="0.28356372120151652"/>
+          <c:w val="0.37570144356955382"/>
+          <c:h val="0.12847331583552055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371633</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1144839</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>153039</xdr:rowOff>
+      <xdr:rowOff>119421</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="3486150"/>
     <xdr:graphicFrame macro="">
@@ -935,6 +1908,44 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661148</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FAE77F-0D95-415F-AFDE-1D067FA9F210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1204,10 +2215,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,378 +2233,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="22">
+      <c r="D3" s="19"/>
+      <c r="E3" s="14">
         <v>34.41639</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="19">
+      <c r="A4" s="31"/>
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="24">
         <v>86.258667000000003</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="15">
         <v>21.746500000000001</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="35">
+        <f>+D4-E4</f>
+        <v>64.512167000000005</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="20">
+      <c r="A5" s="31"/>
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="25">
         <v>85.194666999999995</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="14">
         <v>45.359639999999999</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="36">
+        <f t="shared" ref="F5:F24" si="0">+D5-E5</f>
+        <v>39.835026999999997</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="20">
+      <c r="A6" s="31"/>
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="25">
         <v>85.134</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="14">
         <v>49.932929999999999</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="36">
+        <f t="shared" si="0"/>
+        <v>35.201070000000001</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="20">
+      <c r="A7" s="31"/>
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="26">
         <v>85.134</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="14">
         <v>49.932929999999999</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="36">
+        <f t="shared" si="0"/>
+        <v>35.201070000000001</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="21">
+      <c r="A8" s="31"/>
+      <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="27">
         <v>84.471333000000001</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="16">
         <v>21.933160000000001</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="37">
+        <f t="shared" si="0"/>
+        <v>62.538173</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="19">
+      <c r="A9" s="31"/>
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="20">
         <v>82.195400000000006</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="15">
         <v>42.792990000000003</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="35">
+        <f t="shared" si="0"/>
+        <v>39.402410000000003</v>
+      </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="20">
+      <c r="A10" s="31"/>
+      <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="21">
         <v>73.354399999999998</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="14">
         <v>42.792990000000003</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="36">
+        <f t="shared" si="0"/>
+        <v>30.561409999999995</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="20">
+      <c r="A11" s="31"/>
+      <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="21">
         <v>66.252200000000002</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="14">
         <v>42.746319999999997</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="36">
+        <f t="shared" si="0"/>
+        <v>23.505880000000005</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="20">
+      <c r="A12" s="31"/>
+      <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="22">
         <v>80.047799999999995</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="14">
         <v>37.286369999999998</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="36">
+        <f t="shared" si="0"/>
+        <v>42.761429999999997</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="21">
+      <c r="A13" s="32"/>
+      <c r="B13" s="13">
         <v>11</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="23">
         <v>66.299800000000005</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="16">
         <v>47.086289999999998</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="37">
+        <f t="shared" si="0"/>
+        <v>19.213510000000007</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="18">
+      <c r="A14" s="17"/>
+      <c r="B14" s="11">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="22">
+      <c r="D14" s="28"/>
+      <c r="E14" s="14">
         <v>40.273009999999999</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="36">
+        <f t="shared" si="0"/>
+        <v>-40.273009999999999</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="19">
+      <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="20">
         <v>67.213999999999999</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="15">
         <v>44.449649999999998</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="35">
+        <f t="shared" si="0"/>
+        <v>22.76435</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
+      <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="21">
         <v>66.206000000000003</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="14">
         <v>47.226289999999999</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="36">
+        <f t="shared" si="0"/>
+        <v>18.979710000000004</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
+      <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="21">
         <v>64.134</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="14">
         <v>47.809620000000002</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="36">
+        <f t="shared" si="0"/>
+        <v>16.324379999999998</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
+      <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="22">
         <v>63.821333000000003</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="14">
         <v>47.926279999999998</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="36">
+        <f t="shared" si="0"/>
+        <v>15.895053000000004</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="21">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13">
         <v>17</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="23">
         <v>63.821333000000003</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="16">
         <v>47.926279999999998</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="37">
+        <f t="shared" si="0"/>
+        <v>15.895053000000004</v>
+      </c>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
+      <c r="B20" s="12">
         <v>18</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="20">
+        <v>72.991100000000003</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="35">
+        <f t="shared" si="0"/>
+        <v>72.991100000000003</v>
+      </c>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+      <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="21">
+        <v>72.9589</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="36">
+        <f t="shared" si="0"/>
+        <v>72.9589</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+      <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="21">
+        <v>72.941400000000002</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="36">
+        <f t="shared" si="0"/>
+        <v>72.941400000000002</v>
+      </c>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+      <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="22">
+        <v>72.938599999999994</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="36">
+        <f t="shared" si="0"/>
+        <v>72.938599999999994</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="21">
+      <c r="A24" s="18"/>
+      <c r="B24" s="13">
         <v>22</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
+      <c r="D24" s="23">
+        <v>72.929500000000004</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="37">
+        <f t="shared" si="0"/>
+        <v>72.929500000000004</v>
+      </c>
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215E82A8-987B-4CBA-9CD2-A3CE00F5C10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601363D0-42BF-4D18-9F96-F0E06549E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -345,6 +345,15 @@
     <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -363,13 +372,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1105,19 +1108,19 @@
                   <c:v>15.895053000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.991100000000003</c:v>
+                  <c:v>23.5015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.9589</c:v>
+                  <c:v>23.469299999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.941400000000002</c:v>
+                  <c:v>23.451799999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72.938599999999994</c:v>
+                  <c:v>23.448999999999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.929500000000004</c:v>
+                  <c:v>23.439900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,7 +2221,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="A4:XFD13"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2233,37 +2236,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11">
@@ -2280,7 +2283,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -2293,14 +2296,14 @@
       <c r="E4" s="15">
         <v>21.746500000000001</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="29">
         <f>+D4-E4</f>
         <v>64.512167000000005</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -2313,14 +2316,14 @@
       <c r="E5" s="14">
         <v>45.359639999999999</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="30">
         <f t="shared" ref="F5:F24" si="0">+D5-E5</f>
         <v>39.835026999999997</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -2333,14 +2336,14 @@
       <c r="E6" s="14">
         <v>49.932929999999999</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="30">
         <f t="shared" si="0"/>
         <v>35.201070000000001</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -2353,14 +2356,14 @@
       <c r="E7" s="14">
         <v>49.932929999999999</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="30">
         <f t="shared" si="0"/>
         <v>35.201070000000001</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="13">
         <v>6</v>
       </c>
@@ -2373,14 +2376,14 @@
       <c r="E8" s="16">
         <v>21.933160000000001</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="31">
         <f t="shared" si="0"/>
         <v>62.538173</v>
       </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -2393,14 +2396,14 @@
       <c r="E9" s="15">
         <v>42.792990000000003</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="29">
         <f t="shared" si="0"/>
         <v>39.402410000000003</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -2413,14 +2416,14 @@
       <c r="E10" s="14">
         <v>42.792990000000003</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="30">
         <f t="shared" si="0"/>
         <v>30.561409999999995</v>
       </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -2433,14 +2436,14 @@
       <c r="E11" s="14">
         <v>42.746319999999997</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="30">
         <f t="shared" si="0"/>
         <v>23.505880000000005</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -2453,14 +2456,14 @@
       <c r="E12" s="14">
         <v>37.286369999999998</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="30">
         <f t="shared" si="0"/>
         <v>42.761429999999997</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="13">
         <v>11</v>
       </c>
@@ -2473,7 +2476,7 @@
       <c r="E13" s="16">
         <v>47.086289999999998</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="31">
         <f t="shared" si="0"/>
         <v>19.213510000000007</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="E14" s="14">
         <v>40.273009999999999</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="30">
         <f t="shared" si="0"/>
         <v>-40.273009999999999</v>
       </c>
@@ -2510,7 +2513,7 @@
       <c r="E15" s="15">
         <v>44.449649999999998</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="29">
         <f t="shared" si="0"/>
         <v>22.76435</v>
       </c>
@@ -2529,7 +2532,7 @@
       <c r="E16" s="14">
         <v>47.226289999999999</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="30">
         <f t="shared" si="0"/>
         <v>18.979710000000004</v>
       </c>
@@ -2548,7 +2551,7 @@
       <c r="E17" s="14">
         <v>47.809620000000002</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="30">
         <f t="shared" si="0"/>
         <v>16.324379999999998</v>
       </c>
@@ -2567,7 +2570,7 @@
       <c r="E18" s="14">
         <v>47.926279999999998</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="30">
         <f t="shared" si="0"/>
         <v>15.895053000000004</v>
       </c>
@@ -2587,7 +2590,7 @@
       <c r="E19" s="16">
         <v>47.926279999999998</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="31">
         <f t="shared" si="0"/>
         <v>15.895053000000004</v>
       </c>
@@ -2603,10 +2606,12 @@
       <c r="D20" s="20">
         <v>72.991100000000003</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="35">
+      <c r="E20" s="15">
+        <v>49.489600000000003</v>
+      </c>
+      <c r="F20" s="29">
         <f t="shared" si="0"/>
-        <v>72.991100000000003</v>
+        <v>23.5015</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -2620,10 +2625,12 @@
       <c r="D21" s="21">
         <v>72.9589</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="36">
-        <f t="shared" si="0"/>
-        <v>72.9589</v>
+      <c r="E21" s="38">
+        <v>49.489600000000003</v>
+      </c>
+      <c r="F21" s="30">
+        <f>+D21-E21</f>
+        <v>23.469299999999997</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -2637,10 +2644,12 @@
       <c r="D22" s="21">
         <v>72.941400000000002</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="36">
-        <f t="shared" si="0"/>
-        <v>72.941400000000002</v>
+      <c r="E22" s="38">
+        <v>49.489600000000003</v>
+      </c>
+      <c r="F22" s="30">
+        <f>+D22-E22</f>
+        <v>23.451799999999999</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2654,10 +2663,12 @@
       <c r="D23" s="22">
         <v>72.938599999999994</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="36">
-        <f t="shared" si="0"/>
-        <v>72.938599999999994</v>
+      <c r="E23" s="38">
+        <v>49.489600000000003</v>
+      </c>
+      <c r="F23" s="30">
+        <f>+D23-E23</f>
+        <v>23.448999999999991</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2672,10 +2683,12 @@
       <c r="D24" s="23">
         <v>72.929500000000004</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="37">
+      <c r="E24" s="16">
+        <v>49.489600000000003</v>
+      </c>
+      <c r="F24" s="31">
         <f t="shared" si="0"/>
-        <v>72.929500000000004</v>
+        <v>23.439900000000002</v>
       </c>
       <c r="G24" s="10"/>
     </row>

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601363D0-42BF-4D18-9F96-F0E06549E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A1A4C-FF0E-4C8A-B4E0-407FA3D30166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>N° intento</t>
   </si>
@@ -224,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -259,11 +259,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -372,7 +383,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +516,7 @@
               <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -519,18 +548,21 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -541,7 +573,7 @@
               <c:f>'Primera Competencia'!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>86.258667000000003</c:v>
                 </c:pt>
@@ -572,19 +604,19 @@
                 <c:pt idx="9" formatCode="0.0000">
                   <c:v>66.299800000000005</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.0000">
+                <c:pt idx="11" formatCode="0.0000">
                   <c:v>67.213999999999999</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.0000">
+                <c:pt idx="12" formatCode="0.0000">
                   <c:v>66.206000000000003</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
+                <c:pt idx="13" formatCode="0.0000">
                   <c:v>64.134</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="0.0000">
+                <c:pt idx="14" formatCode="0.0000">
                   <c:v>63.821333000000003</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0.0000">
+                <c:pt idx="15" formatCode="0.0000">
                   <c:v>63.821333000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -627,7 +659,7 @@
               <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -659,18 +691,21 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -681,7 +716,7 @@
               <c:f>'Primera Competencia'!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>21.746500000000001</c:v>
                 </c:pt>
@@ -713,18 +748,21 @@
                   <c:v>47.086289999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>40.273009999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>44.449649999999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>47.226289999999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>47.809620000000002</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>47.926279999999998</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>47.926279999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -992,7 +1030,7 @@
               <c:f>'Primera Competencia'!$B$3:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1024,33 +1062,36 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
@@ -1061,7 +1102,7 @@
               <c:f>'Primera Competencia'!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>64.512167000000005</c:v>
                 </c:pt>
@@ -1093,33 +1134,36 @@
                   <c:v>19.213510000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>-40.273009999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>22.76435</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>18.979710000000004</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>16.324379999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.895053000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15.895053000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>15.895053000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>23.5015</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>23.469299999999997</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>23.451799999999999</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>23.448999999999991</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>23.439900000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1881,9 +1925,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1144839</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119421</xdr:rowOff>
+      <xdr:colOff>1133633</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52185</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="3486150"/>
     <xdr:graphicFrame macro="">
@@ -2215,13 +2259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2526,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="11">
         <v>12</v>
@@ -2625,7 +2669,7 @@
       <c r="D21" s="21">
         <v>72.9589</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="14">
         <v>49.489600000000003</v>
       </c>
       <c r="F21" s="30">
@@ -2644,7 +2688,7 @@
       <c r="D22" s="21">
         <v>72.941400000000002</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="14">
         <v>49.489600000000003</v>
       </c>
       <c r="F22" s="30">
@@ -2663,7 +2707,7 @@
       <c r="D23" s="22">
         <v>72.938599999999994</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="14">
         <v>49.489600000000003</v>
       </c>
       <c r="F23" s="30">
@@ -2691,6 +2735,24 @@
         <v>23.439900000000002</v>
       </c>
       <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39">
+        <v>23</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42">
+        <v>40.273009999999999</v>
+      </c>
+      <c r="F25" s="43">
+        <f t="shared" ref="F25" si="1">+D25-E25</f>
+        <v>-40.273009999999999</v>
+      </c>
+      <c r="G25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A1A4C-FF0E-4C8A-B4E0-407FA3D30166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29784495-99D5-42CE-ACD7-E71727EB4499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primera Competencia" sheetId="1" r:id="rId1"/>
+    <sheet name="En búsqueda de la meseta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>N° intento</t>
   </si>
@@ -96,6 +97,15 @@
   </si>
   <si>
     <t>Competencia_01 (mal solución)</t>
+  </si>
+  <si>
+    <t>Estímulos</t>
+  </si>
+  <si>
+    <t>Public Score</t>
+  </si>
+  <si>
+    <t>Solución 18: Primer mejor optimización bayesiana de la clase 3</t>
   </si>
 </sst>
 </file>
@@ -274,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -365,6 +375,27 @@
     <xf numFmtId="164" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -383,27 +414,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2261,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A25" sqref="A25:G25"/>
@@ -2280,37 +2291,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="33"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11">
@@ -2327,7 +2338,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -2347,7 +2358,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -2367,7 +2378,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -2387,7 +2398,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -2407,7 +2418,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="13">
         <v>6</v>
       </c>
@@ -2427,7 +2438,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -2467,7 +2478,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -2487,7 +2498,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -2507,7 +2518,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="13">
         <v>11</v>
       </c>
@@ -2737,22 +2748,22 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33">
         <v>23</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42">
+      <c r="D25" s="35"/>
+      <c r="E25" s="36">
         <v>40.273009999999999</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="37">
         <f t="shared" ref="F25" si="1">+D25-E25</f>
         <v>-40.273009999999999</v>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2768,4 +2779,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40565344-81F6-4F0B-A109-33F94B976C9A}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
+        <v>12000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29784495-99D5-42CE-ACD7-E71727EB4499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B3E16-DF11-49DF-83A3-BB3AAD3A72AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>N° intento</t>
   </si>
@@ -107,17 +107,75 @@
   <si>
     <t>Solución 18: Primer mejor optimización bayesiana de la clase 3</t>
   </si>
+  <si>
+    <t>sol-24</t>
+  </si>
+  <si>
+    <t>sol-25</t>
+  </si>
+  <si>
+    <t>sol-26</t>
+  </si>
+  <si>
+    <t>sol-27</t>
+  </si>
+  <si>
+    <t>sol-28</t>
+  </si>
+  <si>
+    <t>sol-29</t>
+  </si>
+  <si>
+    <t>sol-30</t>
+  </si>
+  <si>
+    <t>sol-31</t>
+  </si>
+  <si>
+    <t>sol-32</t>
+  </si>
+  <si>
+    <t>sol-33</t>
+  </si>
+  <si>
+    <t>sol-34</t>
+  </si>
+  <si>
+    <t>sol-35</t>
+  </si>
+  <si>
+    <t>sol-36</t>
+  </si>
+  <si>
+    <t>sol-37</t>
+  </si>
+  <si>
+    <t>sol-38</t>
+  </si>
+  <si>
+    <t>sol-39</t>
+  </si>
+  <si>
+    <t>sol-40</t>
+  </si>
+  <si>
+    <t>sol-41</t>
+  </si>
+  <si>
+    <t>sol-42</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +246,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -284,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -396,6 +462,7 @@
     <xf numFmtId="3" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,7 +481,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,6 +1445,588 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>Public</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t> Score de Kaggle y </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>Cantidad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t> de Estímulos Enviados </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19808333333333333"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10126159230096236"/>
+          <c:y val="0.11152777777777778"/>
+          <c:w val="0.86818285214348201"/>
+          <c:h val="0.68206911636045497"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'En búsqueda de la meseta'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Public Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'En búsqueda de la meseta'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'En búsqueda de la meseta'!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>37.706359999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.573009999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.159610000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.646279999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.102969999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.04627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.196249999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.699599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.242910000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.756239999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.07958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.636249999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.232939999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.926279999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.20628</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.349600000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.486280000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.342959999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.699660000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D47-4766-9CC8-A146C4A1B65D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="942592416"/>
+        <c:axId val="11533312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="942592416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Estímulos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11533312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11533312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Public Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="942592416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1415,7 +2067,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1999,6 +3207,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257181</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257181</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CBA17A-FBC6-1EFC-3D57-6D54C19C1920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2276,7 +3525,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:G25"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2291,37 +3540,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11">
@@ -2338,7 +3587,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -2358,7 +3607,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -2378,7 +3627,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -2398,7 +3647,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -2418,7 +3667,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="13">
         <v>6</v>
       </c>
@@ -2438,7 +3687,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -2458,7 +3707,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -2478,7 +3727,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -2498,7 +3747,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -2518,7 +3767,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="13">
         <v>11</v>
       </c>
@@ -2786,19 +4035,22 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="47" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2811,101 +4063,217 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="39">
         <v>2000</v>
       </c>
+      <c r="C3" s="46">
+        <v>37.706359999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="39">
         <v>3000</v>
       </c>
+      <c r="C4" s="46">
+        <v>39.573009999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="39">
         <v>4000</v>
       </c>
+      <c r="C5" s="46">
+        <v>48.159610000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="39">
         <v>4500</v>
       </c>
+      <c r="C6" s="46">
+        <v>47.646279999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="39">
         <v>5000</v>
       </c>
+      <c r="C7" s="46">
+        <v>45.102969999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="39">
         <v>5500</v>
       </c>
+      <c r="C8" s="46">
+        <v>49.04627</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="39">
         <v>6000</v>
       </c>
+      <c r="C9" s="46">
+        <v>52.196249999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="39">
         <v>6500</v>
       </c>
+      <c r="C10" s="46">
+        <v>49.699599999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="39">
         <v>7000</v>
       </c>
+      <c r="C11" s="46">
+        <v>52.242910000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="39">
         <v>7500</v>
       </c>
+      <c r="C12" s="46">
+        <v>52.756239999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="39">
         <v>8000</v>
       </c>
+      <c r="C13" s="46">
+        <v>52.07958</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="39">
         <v>8500</v>
       </c>
+      <c r="C14" s="46">
+        <v>51.636249999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="39">
         <v>9000</v>
       </c>
+      <c r="C15" s="46">
+        <v>49.232939999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="39">
         <v>9500</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="C16" s="46">
+        <v>47.926279999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="39">
         <v>10000</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="C17" s="46">
+        <v>48.20628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="39">
         <v>10500</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="C18" s="46">
+        <v>49.349600000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="39">
         <v>11500</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
-        <v>12000</v>
+      <c r="C19" s="46">
+        <v>48.486280000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="39">
+        <v>13000</v>
+      </c>
+      <c r="C20" s="46">
+        <v>47.342959999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="39">
+        <v>15000</v>
+      </c>
+      <c r="C21" s="46">
+        <v>42.699660000000002</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B3E16-DF11-49DF-83A3-BB3AAD3A72AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96698562-D113-44A8-AB22-7F6B15A743A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -463,6 +463,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,10 +485,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1837,7 +1837,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3540,37 +3540,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="41"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11">
@@ -3587,7 +3587,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="13">
         <v>6</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="13">
         <v>11</v>
       </c>
@@ -4050,7 +4050,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4063,211 +4063,211 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="39">
         <v>2000</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="40">
         <v>37.706359999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="39">
         <v>3000</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="40">
         <v>39.573009999999996</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="39">
         <v>4000</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="40">
         <v>48.159610000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="39">
         <v>4500</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="40">
         <v>47.646279999999997</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="39">
         <v>5000</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="40">
         <v>45.102969999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="39">
         <v>5500</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="40">
         <v>49.04627</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="39">
         <v>6000</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="40">
         <v>52.196249999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="39">
         <v>6500</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="40">
         <v>49.699599999999997</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="39">
         <v>7000</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="40">
         <v>52.242910000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="39">
         <v>7500</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="40">
         <v>52.756239999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="39">
         <v>8000</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="40">
         <v>52.07958</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="39">
         <v>8500</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="40">
         <v>51.636249999999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="39">
         <v>9000</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="40">
         <v>49.232939999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="39">
         <v>9500</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="40">
         <v>47.926279999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="39">
         <v>10000</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="40">
         <v>48.20628</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="39">
         <v>10500</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="40">
         <v>49.349600000000002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="41" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="39">
         <v>11500</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="40">
         <v>48.486280000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="39">
         <v>13000</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="40">
         <v>47.342959999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="39">
         <v>15000</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="40">
         <v>42.699660000000002</v>
       </c>
     </row>

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96698562-D113-44A8-AB22-7F6B15A743A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15BC868-209E-43FA-9FE1-8990E86459D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>N° intento</t>
   </si>
@@ -163,6 +163,13 @@
   </si>
   <si>
     <t>sol-42</t>
+  </si>
+  <si>
+    <t>Private Score</t>
+  </si>
+  <si>
+    <t>Diferencia
+(Privado - Público)</t>
   </si>
 </sst>
 </file>
@@ -350,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -359,26 +366,14 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,14 +454,29 @@
     <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,12 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,53 +601,56 @@
               <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -654,50 +661,50 @@
               <c:f>'Primera Competencia'!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
                   <c:v>86.258667000000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>85.194666999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.134</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>85.134</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>85.134</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>84.471333000000001</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.0000">
+                <c:pt idx="6" formatCode="0.0000">
                   <c:v>82.195400000000006</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.0000">
+                <c:pt idx="7" formatCode="0.0000">
                   <c:v>73.354399999999998</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.0000">
+                <c:pt idx="8" formatCode="0.0000">
                   <c:v>66.252200000000002</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.0000">
+                <c:pt idx="9" formatCode="0.0000">
                   <c:v>80.047799999999995</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
+                <c:pt idx="10" formatCode="0.0000">
                   <c:v>66.299800000000005</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.0000">
+                <c:pt idx="12" formatCode="0.0000">
                   <c:v>67.213999999999999</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
+                <c:pt idx="13" formatCode="0.0000">
                   <c:v>66.206000000000003</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="0.0000">
+                <c:pt idx="14" formatCode="0.0000">
                   <c:v>64.134</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0.0000">
+                <c:pt idx="15" formatCode="0.0000">
                   <c:v>63.821333000000003</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="0.0000">
+                <c:pt idx="16" formatCode="0.0000">
                   <c:v>63.821333000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -740,53 +747,56 @@
               <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -797,53 +807,56 @@
               <c:f>'Primera Competencia'!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>34.41639</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>21.746500000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45.359639999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.932929999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49.932929999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>49.932929999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21.933160000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.792990000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42.792990000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>42.792990000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>42.746319999999997</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>37.286369999999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>47.086289999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>40.273009999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44.449649999999998</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>47.226289999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>47.809620000000002</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>47.926279999999998</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>47.926279999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1111,68 +1124,71 @@
               <c:f>'Primera Competencia'!$B$3:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
@@ -1183,68 +1199,68 @@
               <c:f>'Primera Competencia'!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
+                <c:ptCount val="22"/>
+                <c:pt idx="1">
                   <c:v>64.512167000000005</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>39.835026999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.201070000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.201070000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>35.201070000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>62.538173</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>39.402410000000003</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>30.561409999999995</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23.505880000000005</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>42.761429999999997</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>19.213510000000007</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>-40.273009999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>22.76435</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>18.979710000000004</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>16.324379999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.895053000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15.895053000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>15.895053000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>23.5015</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>23.469299999999997</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>23.451799999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>23.448999999999991</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>23.439900000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1446,6 +1462,994 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Diferencia entre el Score Privado y el Score Público</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040181097906052"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7512666604280582E-2"/>
+          <c:y val="0.13040316681726261"/>
+          <c:w val="0.87915778778925979"/>
+          <c:h val="0.79354531503234227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Primera Competencia'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score 
+Kaggle Privado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$G$3:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>32.240119999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.27009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.950150000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.050190000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.050190000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.660080000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.370170000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.370170000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.230150000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.180160000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.730139999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.42013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.640160000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.220170000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.100180000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.870190000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.870190000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CF0-48B4-9766-6553FEEB5D64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Primera Competencia'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Score 
+Kaggle Público</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$E$3:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>34.41639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.746500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.359639999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.932929999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.932929999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.933160000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.792990000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.792990000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.746319999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.286369999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.086289999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.273009999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.449649999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.226289999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.809620000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.926279999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.926279999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CF0-48B4-9766-6553FEEB5D64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2093147154"/>
+        <c:axId val="1819361754"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2093147154"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819361754"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819361754"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2093147154"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56661720340984545"/>
+          <c:y val="0.60247235489006501"/>
+          <c:w val="0.31114171000271829"/>
+          <c:h val="0.19035669721612672"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Diferencia
+(Público - Privado)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.25083333333333335"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.66144211140274134"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Primera Competencia'!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Diferencia
+(Privado - Público)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$B$3:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$H$3:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>2.1762700000000024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5235899999999987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4094899999999981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1172600000000017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.1172600000000017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.72691999999999979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5771799999999985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5771799999999985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5161699999999954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.8937900000000027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3561499999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.852879999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80948999999999671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.99388000000000432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.2905599999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.9439100000000025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.9439100000000025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.8005899999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.8005899999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.8005899999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.8005899999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.8005899999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8674-4973-BF67-9FC2FB70C0B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="394018976"/>
+        <c:axId val="429623952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394018976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429623952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429623952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394018976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3758143898827952"/>
+          <c:y val="0.13203028690962468"/>
+          <c:w val="0.37570144356955382"/>
+          <c:h val="0.12847331583552055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2027,6 +3031,806 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>Public</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t> y Private Score de Kaggle y </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>Cantidad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t> de Estímulos Enviados </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19808333333333333"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10126159230096236"/>
+          <c:y val="0.11152777777777778"/>
+          <c:w val="0.86818285214348201"/>
+          <c:h val="0.68206911636045497"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'En búsqueda de la meseta'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Public Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'En búsqueda de la meseta'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'En búsqueda de la meseta'!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>37.706359999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.573009999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.159610000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.646279999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.102969999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.04627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.196249999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.699599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.242910000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.756239999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.07958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.636249999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.232939999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.926279999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.20628</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.349600000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.486280000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.342959999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.699660000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B867-468F-AC12-00973B891E88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'En búsqueda de la meseta'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Private Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'En búsqueda de la meseta'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'En búsqueda de la meseta'!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>26.240089999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.240110000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.760129999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.180140000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.470149999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.780169999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.630180000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.900170000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.010179999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.790179999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.280189999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.270189999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.5002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.060189999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.740189999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.050179999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.620179999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.110169999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.300150000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B867-468F-AC12-00973B891E88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="942592416"/>
+        <c:axId val="11533312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="942592416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Estímulos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11533312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11533312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Public Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="942592416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64704090113735768"/>
+          <c:y val="0.51405037911927676"/>
+          <c:w val="0.21684798775153105"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2107,6 +3911,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2624,6 +4508,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3212,6 +6128,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5610225" cy="3486150"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60C018C-002D-4C7B-9FB1-0DA53936DEE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283349</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>170490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFB4A8D-F947-4DE8-A3ED-99AEAA89CC42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3219,16 +6206,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257181</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19056</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400056</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257181</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95256</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400056</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57156</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3248,6 +6235,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA10566-FB88-478E-AD55-0A97A6F8D2C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3519,13 +6544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3536,486 +6561,630 @@
     <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="41" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="42"/>
     </row>
-    <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="14">
+      <c r="D3" s="15"/>
+      <c r="E3" s="10">
         <v>34.41639</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="37">
+        <v>32.240119999999997</v>
+      </c>
+      <c r="H3" s="3">
+        <f>+E3-G3</f>
+        <v>2.1762700000000024</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="12">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <v>86.258667000000003</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>21.746500000000001</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="25">
         <f>+D4-E4</f>
         <v>64.512167000000005</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="38">
+        <v>24.27009</v>
+      </c>
+      <c r="H4" s="25">
+        <f t="shared" ref="H4:H25" si="0">+E4-G4</f>
+        <v>-2.5235899999999987</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="11">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="21">
         <v>85.194666999999995</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>45.359639999999999</v>
       </c>
-      <c r="F5" s="30">
-        <f t="shared" ref="F5:F24" si="0">+D5-E5</f>
+      <c r="F5" s="26">
+        <f t="shared" ref="F5:F24" si="1">+D5-E5</f>
         <v>39.835026999999997</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="37">
+        <v>40.950150000000001</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" si="0"/>
+        <v>4.4094899999999981</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="11">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="21">
         <v>85.134</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>49.932929999999999</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
+        <f t="shared" si="1"/>
+        <v>35.201070000000001</v>
+      </c>
+      <c r="G6" s="37">
+        <v>53.050190000000001</v>
+      </c>
+      <c r="H6" s="26">
         <f t="shared" si="0"/>
+        <v>-3.1172600000000017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="22">
+        <v>85.134</v>
+      </c>
+      <c r="E7" s="10">
+        <v>49.932929999999999</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="1"/>
         <v>35.201070000000001</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G7" s="37">
+        <v>53.050190000000001</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="0"/>
+        <v>-3.1172600000000017</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="23">
+        <v>84.471333000000001</v>
+      </c>
+      <c r="E8" s="12">
+        <v>21.933160000000001</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="1"/>
+        <v>62.538173</v>
+      </c>
+      <c r="G8" s="39">
+        <v>22.660080000000001</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.72691999999999979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16">
+        <v>82.195400000000006</v>
+      </c>
+      <c r="E9" s="11">
+        <v>42.792990000000003</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="1"/>
+        <v>39.402410000000003</v>
+      </c>
+      <c r="G9" s="38">
+        <v>46.370170000000002</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>-3.5771799999999985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17">
+        <v>73.354399999999998</v>
+      </c>
+      <c r="E10" s="10">
+        <v>42.792990000000003</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="1"/>
+        <v>30.561409999999995</v>
+      </c>
+      <c r="G10" s="37">
+        <v>46.370170000000002</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="0"/>
+        <v>-3.5771799999999985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="17">
+        <v>66.252200000000002</v>
+      </c>
+      <c r="E11" s="10">
+        <v>42.746319999999997</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="1"/>
+        <v>23.505880000000005</v>
+      </c>
+      <c r="G11" s="37">
+        <v>41.230150000000002</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5161699999999954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="18">
+        <v>80.047799999999995</v>
+      </c>
+      <c r="E12" s="10">
+        <v>37.286369999999998</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="1"/>
+        <v>42.761429999999997</v>
+      </c>
+      <c r="G12" s="37">
+        <v>44.180160000000001</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="0"/>
+        <v>-6.8937900000000027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="D7" s="26">
-        <v>85.134</v>
-      </c>
-      <c r="E7" s="14">
-        <v>49.932929999999999</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19">
+        <v>66.299800000000005</v>
+      </c>
+      <c r="E13" s="12">
+        <v>47.086289999999998</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="1"/>
+        <v>19.213510000000007</v>
+      </c>
+      <c r="G13" s="39">
+        <v>37.730139999999999</v>
+      </c>
+      <c r="H13" s="27">
         <f t="shared" si="0"/>
-        <v>35.201070000000001</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>9.3561499999999995</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="13">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="27">
-        <v>84.471333000000001</v>
-      </c>
-      <c r="E8" s="16">
-        <v>21.933160000000001</v>
-      </c>
-      <c r="F8" s="31">
-        <f t="shared" si="0"/>
-        <v>62.538173</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="20">
-        <v>82.195400000000006</v>
-      </c>
-      <c r="E9" s="15">
-        <v>42.792990000000003</v>
-      </c>
-      <c r="F9" s="29">
-        <f t="shared" si="0"/>
-        <v>39.402410000000003</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="11">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="21">
-        <v>73.354399999999998</v>
-      </c>
-      <c r="E10" s="14">
-        <v>42.792990000000003</v>
-      </c>
-      <c r="F10" s="30">
-        <f t="shared" si="0"/>
-        <v>30.561409999999995</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="21">
-        <v>66.252200000000002</v>
-      </c>
-      <c r="E11" s="14">
-        <v>42.746319999999997</v>
-      </c>
-      <c r="F11" s="30">
-        <f t="shared" si="0"/>
-        <v>23.505880000000005</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="11">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="22">
-        <v>80.047799999999995</v>
-      </c>
-      <c r="E12" s="14">
-        <v>37.286369999999998</v>
-      </c>
-      <c r="F12" s="30">
-        <f t="shared" si="0"/>
-        <v>42.761429999999997</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="23">
-        <v>66.299800000000005</v>
-      </c>
-      <c r="E13" s="16">
-        <v>47.086289999999998</v>
-      </c>
-      <c r="F13" s="31">
-        <f t="shared" si="0"/>
-        <v>19.213510000000007</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="11">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="14">
+      <c r="D14" s="24"/>
+      <c r="E14" s="10">
         <v>40.273009999999999</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
+        <f t="shared" si="1"/>
+        <v>-40.273009999999999</v>
+      </c>
+      <c r="G14" s="37">
+        <v>36.42013</v>
+      </c>
+      <c r="H14" s="26">
         <f t="shared" si="0"/>
-        <v>-40.273009999999999</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>3.852879999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>67.213999999999999</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>44.449649999999998</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="25">
+        <f t="shared" si="1"/>
+        <v>22.76435</v>
+      </c>
+      <c r="G15" s="38">
+        <v>43.640160000000002</v>
+      </c>
+      <c r="H15" s="25">
         <f t="shared" si="0"/>
-        <v>22.76435</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>0.80948999999999671</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>66.206000000000003</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="10">
         <v>47.226289999999999</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="26">
+        <f t="shared" si="1"/>
+        <v>18.979710000000004</v>
+      </c>
+      <c r="G16" s="37">
+        <v>48.220170000000003</v>
+      </c>
+      <c r="H16" s="26">
         <f t="shared" si="0"/>
-        <v>18.979710000000004</v>
-      </c>
-      <c r="G16" s="8"/>
+        <v>-0.99388000000000432</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <v>64.134</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>47.809620000000002</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="26">
+        <f t="shared" si="1"/>
+        <v>16.324379999999998</v>
+      </c>
+      <c r="G17" s="37">
+        <v>49.100180000000002</v>
+      </c>
+      <c r="H17" s="26">
         <f t="shared" si="0"/>
-        <v>16.324379999999998</v>
-      </c>
-      <c r="G17" s="8"/>
+        <v>-1.2905599999999993</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="18">
         <v>63.821333000000003</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>47.926279999999998</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="26">
+        <f t="shared" si="1"/>
+        <v>15.895053000000004</v>
+      </c>
+      <c r="G18" s="37">
+        <v>51.870190000000001</v>
+      </c>
+      <c r="H18" s="26">
         <f t="shared" si="0"/>
+        <v>-3.9439100000000025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="19">
+        <v>63.821333000000003</v>
+      </c>
+      <c r="E19" s="12">
+        <v>47.926279999999998</v>
+      </c>
+      <c r="F19" s="27">
+        <f t="shared" si="1"/>
         <v>15.895053000000004</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G19" s="39">
+        <v>51.870190000000001</v>
+      </c>
+      <c r="H19" s="27">
+        <f t="shared" si="0"/>
+        <v>-3.9439100000000025</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="13">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="23">
-        <v>63.821333000000003</v>
-      </c>
-      <c r="E19" s="16">
-        <v>47.926279999999998</v>
-      </c>
-      <c r="F19" s="31">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="16">
+        <v>72.991100000000003</v>
+      </c>
+      <c r="E20" s="11">
+        <v>49.489600000000003</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="1"/>
+        <v>23.5015</v>
+      </c>
+      <c r="G20" s="38">
+        <v>54.290190000000003</v>
+      </c>
+      <c r="H20" s="25">
         <f t="shared" si="0"/>
-        <v>15.895053000000004</v>
-      </c>
-      <c r="G19" s="10"/>
+        <v>-4.8005899999999997</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="20">
-        <v>72.991100000000003</v>
-      </c>
-      <c r="E20" s="15">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17">
+        <v>72.9589</v>
+      </c>
+      <c r="E21" s="10">
         <v>49.489600000000003</v>
       </c>
-      <c r="F20" s="29">
-        <f t="shared" si="0"/>
-        <v>23.5015</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="21">
-        <v>72.9589</v>
-      </c>
-      <c r="E21" s="14">
-        <v>49.489600000000003</v>
-      </c>
-      <c r="F21" s="30">
+      <c r="F21" s="26">
         <f>+D21-E21</f>
         <v>23.469299999999997</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="37">
+        <v>54.290190000000003</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" si="0"/>
+        <v>-4.8005899999999997</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>72.941400000000002</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>49.489600000000003</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="26">
         <f>+D22-E22</f>
         <v>23.451799999999999</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="37">
+        <v>54.290190000000003</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="0"/>
+        <v>-4.8005899999999997</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="18">
         <v>72.938599999999994</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="10">
         <v>49.489600000000003</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="26">
         <f>+D23-E23</f>
         <v>23.448999999999991</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="37">
+        <v>54.290190000000003</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="0"/>
+        <v>-4.8005899999999997</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="13">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="19">
         <v>72.929500000000004</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="12">
         <v>49.489600000000003</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="27">
+        <f t="shared" si="1"/>
+        <v>23.439900000000002</v>
+      </c>
+      <c r="G24" s="39">
+        <v>54.290190000000003</v>
+      </c>
+      <c r="H24" s="27">
         <f t="shared" si="0"/>
-        <v>23.439900000000002</v>
-      </c>
-      <c r="G24" s="10"/>
+        <v>-4.8005899999999997</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29">
         <v>23</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36">
+      <c r="D25" s="31"/>
+      <c r="E25" s="32">
         <v>40.273009999999999</v>
       </c>
-      <c r="F25" s="37">
-        <f t="shared" ref="F25" si="1">+D25-E25</f>
+      <c r="F25" s="33">
+        <f t="shared" ref="F25" si="2">+D25-E25</f>
         <v>-40.273009999999999</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="40">
+        <v>36.42013</v>
+      </c>
+      <c r="H25" s="33">
+        <f t="shared" si="0"/>
+        <v>3.852879999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="D1:D2"/>
@@ -4032,13 +7201,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40565344-81F6-4F0B-A109-33F94B976C9A}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,226 +7218,286 @@
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <v>2000</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="35">
         <v>37.706359999999997</v>
       </c>
+      <c r="D3" s="1">
+        <v>26.240089999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <v>3000</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="35">
         <v>39.573009999999996</v>
       </c>
+      <c r="D4" s="1">
+        <v>32.240110000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <v>4000</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="35">
         <v>48.159610000000001</v>
       </c>
+      <c r="D5" s="1">
+        <v>37.760129999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <v>4500</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="35">
         <v>47.646279999999997</v>
       </c>
+      <c r="D6" s="1">
+        <v>40.180140000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <v>5000</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="35">
         <v>45.102969999999999</v>
       </c>
+      <c r="D7" s="1">
+        <v>41.470149999999997</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <v>5500</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="35">
         <v>49.04627</v>
       </c>
+      <c r="D8" s="1">
+        <v>46.780169999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <v>6000</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="35">
         <v>52.196249999999999</v>
       </c>
+      <c r="D9" s="1">
+        <v>49.630180000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <v>6500</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="35">
         <v>49.699599999999997</v>
       </c>
+      <c r="D10" s="1">
+        <v>48.900170000000003</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="34">
         <v>7000</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="35">
         <v>52.242910000000002</v>
       </c>
+      <c r="D11" s="1">
+        <v>50.010179999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <v>7500</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="35">
         <v>52.756239999999998</v>
       </c>
+      <c r="D12" s="1">
+        <v>50.790179999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <v>8000</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="35">
         <v>52.07958</v>
       </c>
+      <c r="D13" s="1">
+        <v>53.280189999999997</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <v>8500</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="35">
         <v>51.636249999999997</v>
       </c>
+      <c r="D14" s="1">
+        <v>53.270189999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <v>9000</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="35">
         <v>49.232939999999999</v>
       </c>
+      <c r="D15" s="1">
+        <v>54.5002</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <v>9500</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="35">
         <v>47.926279999999998</v>
       </c>
+      <c r="D16" s="1">
+        <v>52.060189999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <v>10000</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="35">
         <v>48.20628</v>
       </c>
+      <c r="D17" s="1">
+        <v>51.740189999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="34">
         <v>10500</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="35">
         <v>49.349600000000002</v>
       </c>
+      <c r="D18" s="1">
+        <v>51.050179999999997</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="34">
         <v>11500</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="35">
         <v>48.486280000000001</v>
       </c>
+      <c r="D19" s="1">
+        <v>48.620179999999998</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="34">
         <v>13000</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="35">
         <v>47.342959999999998</v>
       </c>
+      <c r="D20" s="1">
+        <v>48.110169999999997</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="34">
         <v>15000</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="35">
         <v>42.699660000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41.300150000000002</v>
       </c>
     </row>
   </sheetData>

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15BC868-209E-43FA-9FE1-8990E86459D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1785C7B7-235D-4DBE-9CC8-C98B2774F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,10 +598,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
+              <c:f>'Primera Competencia'!$B$3:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -652,16 +652,31 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Primera Competencia'!$D$3:$D$19</c:f>
+              <c:f>'Primera Competencia'!$D$3:$D$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>000,000</c:formatCode>
+                <c:ptCount val="22"/>
                 <c:pt idx="1">
                   <c:v>86.258667000000003</c:v>
                 </c:pt>
@@ -677,35 +692,50 @@
                 <c:pt idx="5">
                   <c:v>84.471333000000001</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.0000">
+                <c:pt idx="6" formatCode="00,000">
                   <c:v>82.195400000000006</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.0000">
+                <c:pt idx="7" formatCode="00,000">
                   <c:v>73.354399999999998</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.0000">
+                <c:pt idx="8" formatCode="00,000">
                   <c:v>66.252200000000002</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
+                <c:pt idx="9" formatCode="00,000">
                   <c:v>80.047799999999995</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.0000">
+                <c:pt idx="10" formatCode="00,000">
                   <c:v>66.299800000000005</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
+                <c:pt idx="12" formatCode="00,000">
                   <c:v>67.213999999999999</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="0.0000">
+                <c:pt idx="13" formatCode="00,000">
                   <c:v>66.206000000000003</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0.0000">
+                <c:pt idx="14" formatCode="00,000">
                   <c:v>64.134</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="0.0000">
+                <c:pt idx="15" formatCode="00,000">
                   <c:v>63.821333000000003</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0.0000">
+                <c:pt idx="16" formatCode="00,000">
                   <c:v>63.821333000000003</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="00,000">
+                  <c:v>72.991100000000003</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="00,000">
+                  <c:v>72.9589</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="00,000">
+                  <c:v>72.941400000000002</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="00,000">
+                  <c:v>72.938599999999994</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="00,000">
+                  <c:v>72.929500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,10 +774,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
+              <c:f>'Primera Competencia'!$B$3:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -798,16 +828,31 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Primera Competencia'!$E$3:$E$19</c:f>
+              <c:f>'Primera Competencia'!$E$3:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>34.41639</c:v>
                 </c:pt>
@@ -858,6 +903,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>47.926279999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.489600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,6 +1110,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33712016324381533"/>
+          <c:y val="1.1087816672118419E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1084,9 +1152,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6580927384076991E-2"/>
-          <c:y val="0.25083333333333335"/>
+          <c:y val="0.19539439451208365"/>
           <c:w val="0.90286351706036749"/>
-          <c:h val="0.66144211140274134"/>
+          <c:h val="0.71688118633235987"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1554,10 +1622,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
+              <c:f>'Primera Competencia'!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1608,16 +1676,34 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Primera Competencia'!$G$3:$G$19</c:f>
+              <c:f>'Primera Competencia'!$G$3:$G$25</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>32.240119999999997</c:v>
                 </c:pt>
@@ -1668,6 +1754,24 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>51.870190000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.290190000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.290190000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54.290190000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.290190000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.290190000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.42013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,10 +1810,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Primera Competencia'!$B$3:$B$19</c:f>
+              <c:f>'Primera Competencia'!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1760,16 +1864,34 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Primera Competencia'!$E$3:$E$19</c:f>
+              <c:f>'Primera Competencia'!$E$3:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>34.41639</c:v>
                 </c:pt>
@@ -1820,6 +1942,24 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>47.926279999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.273009999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,7 +2099,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.56661720340984545"/>
           <c:y val="0.60247235489006501"/>
-          <c:w val="0.31114171000271829"/>
+          <c:w val="0.34283384356242397"/>
           <c:h val="0.19035669721612672"/>
         </c:manualLayout>
       </c:layout>
@@ -2069,9 +2209,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6580927384076991E-2"/>
-          <c:y val="0.25083333333333335"/>
+          <c:y val="0.15843500560502224"/>
           <c:w val="0.90286351706036749"/>
-          <c:h val="0.66144211140274134"/>
+          <c:h val="0.75384057523942127"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2374,10 +2514,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3758143898827952"/>
-          <c:y val="0.13203028690962468"/>
-          <c:w val="0.37570144356955382"/>
-          <c:h val="0.12847331583552055"/>
+          <c:x val="0.39831391730413851"/>
+          <c:y val="0.16529373692597996"/>
+          <c:w val="0.54669776916299806"/>
+          <c:h val="0.18760847726153632"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3088,8 +3228,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19808333333333333"/>
-          <c:y val="2.3148148148148147E-2"/>
+          <c:x val="0.16475000000000001"/>
+          <c:y val="2.7777777777777776E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6060,9 +6200,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1133633</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52185</xdr:rowOff>
+      <xdr:colOff>1065598</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>174650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="3486150"/>
     <xdr:graphicFrame macro="">
@@ -6093,15 +6233,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>661148</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563497</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12806</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6131,9 +6271,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="3486150"/>
     <xdr:graphicFrame macro="">
@@ -6164,15 +6304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>283349</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>170490</xdr:rowOff>
+      <xdr:colOff>677957</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>61634</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6547,10 +6687,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7207,7 +7347,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1785C7B7-235D-4DBE-9CC8-C98B2774F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F1A22-53A0-49C5-BAB1-C2C6825A6626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
             <c:numRef>
               <c:f>'Primera Competencia'!$D$3:$D$24</c:f>
               <c:numCache>
-                <c:formatCode>000,000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="1">
                   <c:v>86.258667000000003</c:v>
@@ -692,49 +692,49 @@
                 <c:pt idx="5">
                   <c:v>84.471333000000001</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="00,000">
+                <c:pt idx="6" formatCode="0.0000">
                   <c:v>82.195400000000006</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="00,000">
+                <c:pt idx="7" formatCode="0.0000">
                   <c:v>73.354399999999998</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="00,000">
+                <c:pt idx="8" formatCode="0.0000">
                   <c:v>66.252200000000002</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="00,000">
+                <c:pt idx="9" formatCode="0.0000">
                   <c:v>80.047799999999995</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="00,000">
+                <c:pt idx="10" formatCode="0.0000">
                   <c:v>66.299800000000005</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="00,000">
+                <c:pt idx="12" formatCode="0.0000">
                   <c:v>67.213999999999999</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="00,000">
+                <c:pt idx="13" formatCode="0.0000">
                   <c:v>66.206000000000003</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="00,000">
+                <c:pt idx="14" formatCode="0.0000">
                   <c:v>64.134</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="00,000">
+                <c:pt idx="15" formatCode="0.0000">
                   <c:v>63.821333000000003</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="00,000">
+                <c:pt idx="16" formatCode="0.0000">
                   <c:v>63.821333000000003</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="00,000">
+                <c:pt idx="17" formatCode="0.0000">
                   <c:v>72.991100000000003</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="00,000">
+                <c:pt idx="18" formatCode="0.0000">
                   <c:v>72.9589</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="00,000">
+                <c:pt idx="19" formatCode="0.0000">
                   <c:v>72.941400000000002</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="00,000">
+                <c:pt idx="20" formatCode="0.0000">
                   <c:v>72.938599999999994</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="00,000">
+                <c:pt idx="21" formatCode="0.0000">
                   <c:v>72.929500000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -1702,7 +1702,7 @@
             <c:numRef>
               <c:f>'Primera Competencia'!$G$3:$G$25</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>32.240119999999997</c:v>
@@ -3228,8 +3228,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16475000000000001"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.13697222222222222"/>
+          <c:y val="1.8518518518518517E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6690,7 +6690,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7347,7 +7347,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F1A22-53A0-49C5-BAB1-C2C6825A6626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66681606-A769-408E-88B9-AB4FCC91C370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primera Competencia" sheetId="1" r:id="rId1"/>
-    <sheet name="En búsqueda de la meseta" sheetId="2" r:id="rId2"/>
+    <sheet name="PrimeraEn búsqueda de la meseta" sheetId="2" r:id="rId2"/>
+    <sheet name="Segunda Competencia" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>N° intento</t>
   </si>
@@ -170,6 +171,24 @@
   <si>
     <t>Diferencia
 (Privado - Público)</t>
+  </si>
+  <si>
+    <t>De la clase 6, primer mejor bo del lgbm, con 15.000 envíos</t>
+  </si>
+  <si>
+    <t>Modelos Base, primera bo de LGBM</t>
+  </si>
+  <si>
+    <t>De la clase 6, segundo mejor bo del lgbm, con 15.000 envíos</t>
+  </si>
+  <si>
+    <t>De la clase 6, tercer mejor bo del lgbm, con 15.000 envíos</t>
+  </si>
+  <si>
+    <t>De la clase 6, cuarto mejor bo del lgbm, con 15.000 envíos</t>
+  </si>
+  <si>
+    <t>De la clase 6, quinta  mejor bo del lgbm, con 15.000 envíos</t>
   </si>
 </sst>
 </file>
@@ -357,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -488,6 +507,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,6 +1129,407 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Diferencia
+(Público - Privado)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.15843500560502224"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.75384057523942127"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Segunda Competencia'!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Diferencia
+(Privado - Público)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$B$3:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>#.##000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>96.251180000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.05180999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.5317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.92151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.87174999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90CB-4515-9A74-62A3D747E831}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="394018976"/>
+        <c:axId val="429623952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394018976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429623952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429623952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394018976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39831398120822664"/>
+          <c:y val="0.63289268282180655"/>
+          <c:w val="0.54669776916299806"/>
+          <c:h val="0.18760847726153632"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2700,7 +3143,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'En búsqueda de la meseta'!$C$2</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2737,7 +3180,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'En búsqueda de la meseta'!$B$3:$B$21</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2803,7 +3246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'En búsqueda de la meseta'!$C$3:$C$21</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$C$3:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3282,7 +3725,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'En búsqueda de la meseta'!$C$2</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3319,7 +3762,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'En búsqueda de la meseta'!$B$3:$B$21</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3385,7 +3828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'En búsqueda de la meseta'!$C$3:$C$21</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$C$3:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3461,7 +3904,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'En búsqueda de la meseta'!$D$2</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3496,7 +3939,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'En búsqueda de la meseta'!$B$3:$B$21</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3562,7 +4005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'En búsqueda de la meseta'!$D$3:$D$21</c:f>
+              <c:f>'PrimeraEn búsqueda de la meseta'!$D$3:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3971,6 +4414,1220 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Diferencia entre el Score Interno y el Score Público</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040181097906052"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6194047475814245E-2"/>
+          <c:y val="0.12311719231817335"/>
+          <c:w val="0.87915778778925979"/>
+          <c:h val="0.79354531503234227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Segunda Competencia'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Score Interno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.993000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.527500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.524000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F14C-4066-9010-1B97C55A2312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Segunda Competencia'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Score 
+Kaggle Público</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>96.251180000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.05180999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.5317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.92151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.87174999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F14C-4066-9010-1B97C55A2312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2093147154"/>
+        <c:axId val="1819361754"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2093147154"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819361754"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819361754"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2093147154"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62321029905217695"/>
+          <c:y val="0.16531388494470975"/>
+          <c:w val="0.34567062818336158"/>
+          <c:h val="0.19035669721612672"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33712016324381533"/>
+          <c:y val="1.1087816672118419E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.19539439451208365"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.71688118633235987"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Segunda Competencia'!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Diferencia
+(Media Interno - Kaggle)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>#.##000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>330.74882000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-85.058809999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-75.951700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-60.394009999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80.347749999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A50-41E3-881E-A86C0526CF25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="394018976"/>
+        <c:axId val="429623952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394018976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429623952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429623952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394018976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3083841063961919"/>
+          <c:y val="0.27960115860703805"/>
+          <c:w val="0.37570144356955382"/>
+          <c:h val="0.12847331583552055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Diferencia entre el Score Privado y el Score Público</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15040181097906052"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7512666604280582E-2"/>
+          <c:y val="0.13040316681726261"/>
+          <c:w val="0.87915778778925979"/>
+          <c:h val="0.79354531503234227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Segunda Competencia'!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Score 
+Kaggle Privado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB56-4172-A476-E0882F0D240D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Segunda Competencia'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Score 
+Kaggle Público</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Primera Competencia'!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>96.251180000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.05180999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.5317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.92151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.87174999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB56-4172-A476-E0882F0D240D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2093147154"/>
+        <c:axId val="1819361754"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2093147154"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819361754"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819361754"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2093147154"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56661720340984545"/>
+          <c:y val="0.60247235489006501"/>
+          <c:w val="0.34283384356242397"/>
+          <c:h val="0.19035669721612672"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4131,6 +5788,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5680,6 +7417,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6413,6 +9182,153 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1065598</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5610225" cy="3486150"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADC50F2-090B-400C-ABFF-362C15B80F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563497</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12806</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489736A8-5AD3-4822-9AEC-0A7373CE3BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5610225" cy="3486150"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EDDD46-6868-4338-A2A4-A442AD5438D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270783</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554132</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>118784</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C35B3DB-E184-4889-A60A-CC700977C29D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6687,10 +9603,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15:G19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7343,7 +10259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40565344-81F6-4F0B-A109-33F94B976C9A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7645,4 +10561,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E6B357-D765-4AE5-80C2-9272AB64D6E1}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="1"/>
+    <col min="3" max="3" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="53">
+        <v>427</v>
+      </c>
+      <c r="E3" s="53">
+        <v>96.251180000000005</v>
+      </c>
+      <c r="F3" s="25">
+        <f>+D3-E3</f>
+        <v>330.74882000000002</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="25">
+        <f>+E3-G3</f>
+        <v>96.251180000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="47">
+        <v>2</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="53">
+        <v>62.993000000000002</v>
+      </c>
+      <c r="E4" s="53">
+        <v>148.05180999999999</v>
+      </c>
+      <c r="F4" s="54">
+        <f t="shared" ref="F4:F7" si="0">+D4-E4</f>
+        <v>-85.058809999999994</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54">
+        <f t="shared" ref="H4:H7" si="1">+E4-G4</f>
+        <v>148.05180999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="47">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="53">
+        <v>62.58</v>
+      </c>
+      <c r="E5" s="53">
+        <v>138.5317</v>
+      </c>
+      <c r="F5" s="54">
+        <f t="shared" si="0"/>
+        <v>-75.951700000000002</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54">
+        <f t="shared" si="1"/>
+        <v>138.5317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="53">
+        <v>62.527500000000003</v>
+      </c>
+      <c r="E6" s="53">
+        <v>122.92151</v>
+      </c>
+      <c r="F6" s="54">
+        <f t="shared" si="0"/>
+        <v>-60.394009999999994</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54">
+        <f t="shared" si="1"/>
+        <v>122.92151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12">
+        <v>62.524000000000001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>142.87174999999999</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>-80.347749999999991</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="27">
+        <f t="shared" si="1"/>
+        <v>142.87174999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:E7">
+    <sortCondition descending="1" ref="E4:E7"/>
+  </sortState>
+  <mergeCells count="8">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66681606-A769-408E-88B9-AB4FCC91C370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED5F82-7B21-4E74-88DE-463BDE01D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>N° intento</t>
   </si>
@@ -190,6 +190,21 @@
   <si>
     <t>De la clase 6, quinta  mejor bo del lgbm, con 15.000 envíos</t>
   </si>
+  <si>
+    <t>De la clase 7, mejor solucion del bo de lgbm de la carpeta  con 15000 envios</t>
+  </si>
+  <si>
+    <t>De la clase 7, segundo mejor solucion del bo de lgbm de la carpeta  con 15000 envios</t>
+  </si>
+  <si>
+    <t>De la clase 7, tercera mejor solucion del bo de lgbm de la carpeta  con 15000 envios</t>
+  </si>
+  <si>
+    <t>De la clase 7, cuarta mejor solucion del bo de lgbm de la carpeta  con 15000 envios</t>
+  </si>
+  <si>
+    <t>De la clase 7, quinta mejor solucion del bo de lgbm de la carpeta  con 15000 envios</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +216,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +295,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -376,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -490,6 +511,7 @@
     <xf numFmtId="167" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -508,29 +530,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,7 +1332,7 @@
             <c:numRef>
               <c:f>'Segunda Competencia'!$H$3:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>#.##000000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>96.251180000000005</c:v>
@@ -4509,10 +4518,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Segunda Competencia'!$B$3:$B$7</c:f>
+              <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4527,16 +4536,31 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Segunda Competencia'!$D$3:$D$7</c:f>
+              <c:f>'Segunda Competencia'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>427</c:v>
                 </c:pt>
@@ -4551,6 +4575,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>62.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.778999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.495500000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.183999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.991500000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.581999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,10 +4628,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Segunda Competencia'!$B$3:$B$7</c:f>
+              <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4607,16 +4646,31 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Segunda Competencia'!$E$3:$E$7</c:f>
+              <c:f>'Segunda Competencia'!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>96.251180000000005</c:v>
                 </c:pt>
@@ -4631,6 +4685,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>142.87174999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.09153000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.89174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.45158000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.17157</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>139.65171000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,10 +4971,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Segunda Competencia'!$B$3:$B$7</c:f>
+              <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4920,16 +4989,31 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Segunda Competencia'!$F$3:$F$7</c:f>
+              <c:f>'Segunda Competencia'!$F$3:$F$12</c:f>
               <c:numCache>
-                <c:formatCode>#.##000000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>330.74882000000002</c:v>
                 </c:pt>
@@ -4944,6 +5028,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-80.347749999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-38.31253000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-55.396239999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-42.267580000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-42.180070000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5316,7 +5412,7 @@
             <c:numRef>
               <c:f>'Segunda Competencia'!$G$3:$G$7</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -9196,7 +9292,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1065598</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>174650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="3486150"/>
@@ -9229,13 +9325,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>280148</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>46423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>563497</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>12806</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9267,7 +9363,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>102053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="3486150"/>
@@ -9300,13 +9396,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>270783</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>554132</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>118784</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9622,41 +9718,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="42"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="7">
@@ -9679,7 +9775,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -9705,7 +9801,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -9731,7 +9827,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -9757,7 +9853,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -9783,7 +9879,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -9809,7 +9905,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -9835,7 +9931,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -9861,7 +9957,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -9887,7 +9983,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -9913,7 +10009,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -10565,17 +10661,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E6B357-D765-4AE5-80C2-9272AB64D6E1}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="12.5703125" style="1"/>
-    <col min="3" max="3" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="25.7109375" style="1" customWidth="1"/>
@@ -10584,55 +10680,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="42"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="10">
         <v>427</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="10">
         <v>96.251180000000005</v>
       </c>
       <c r="F3" s="25">
@@ -10646,79 +10742,79 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="47">
+      <c r="A4" s="49"/>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="10">
         <v>62.993000000000002</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="10">
         <v>148.05180999999999</v>
       </c>
-      <c r="F4" s="54">
-        <f t="shared" ref="F4:F7" si="0">+D4-E4</f>
+      <c r="F4" s="26">
+        <f t="shared" ref="F4:F11" si="0">+D4-E4</f>
         <v>-85.058809999999994</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54">
-        <f t="shared" ref="H4:H7" si="1">+E4-G4</f>
+      <c r="G4" s="37"/>
+      <c r="H4" s="26">
+        <f t="shared" ref="H4:H11" si="1">+E4-G4</f>
         <v>148.05180999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="47">
+      <c r="A5" s="49"/>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="10">
         <v>62.58</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="10">
         <v>138.5317</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="26">
         <f t="shared" si="0"/>
         <v>-75.951700000000002</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54">
+      <c r="G5" s="37"/>
+      <c r="H5" s="26">
         <f t="shared" si="1"/>
         <v>138.5317</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="47">
+      <c r="A6" s="49"/>
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="10">
         <v>62.527500000000003</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="10">
         <v>122.92151</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="26">
         <f t="shared" si="0"/>
         <v>-60.394009999999994</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54">
+      <c r="G6" s="37"/>
+      <c r="H6" s="26">
         <f t="shared" si="1"/>
         <v>122.92151</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -10740,6 +10836,115 @@
         <f t="shared" si="1"/>
         <v>142.87174999999999</v>
       </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10">
+        <v>86.778999999999996</v>
+      </c>
+      <c r="E8" s="10">
+        <v>125.09153000000001</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>-38.31253000000001</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="25">
+        <f t="shared" si="1"/>
+        <v>125.09153000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10">
+        <v>86.495500000000007</v>
+      </c>
+      <c r="E9" s="10">
+        <v>141.89174</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>-55.396239999999992</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="26">
+        <f t="shared" si="1"/>
+        <v>141.89174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="10">
+        <v>86.183999999999997</v>
+      </c>
+      <c r="E10" s="10">
+        <v>128.45158000000001</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="0"/>
+        <v>-42.267580000000009</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="26">
+        <f t="shared" si="1"/>
+        <v>128.45158000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10">
+        <v>85.991500000000002</v>
+      </c>
+      <c r="E11" s="10">
+        <v>128.17157</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="0"/>
+        <v>-42.180070000000001</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="26">
+        <f t="shared" si="1"/>
+        <v>128.17157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="12">
+        <v>85.581999999999994</v>
+      </c>
+      <c r="E12" s="51">
+        <v>139.65171000000001</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="27"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:E7">

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED5F82-7B21-4E74-88DE-463BDE01D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28289A8-4935-45AC-8DF0-20B14F992442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primera Competencia" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,12 +295,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -397,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -539,7 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,20 +1326,17 @@
               <c:f>'Segunda Competencia'!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>96.251180000000005</c:v>
+                  <c:v>148.05180999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.05180999999999</c:v>
+                  <c:v>138.5317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138.5317</c:v>
+                  <c:v>122.92151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.92151</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>142.87174999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4490,8 +4480,112 @@
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Segunda Competencia'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Score 
+Kaggle Público</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>148.05180999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.5317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.92151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.87174999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.09153000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.89174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.45158000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.17157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139.65171000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F14C-4066-9010-1B97C55A2312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Segunda Competencia'!$D$1:$D$2</c:f>
@@ -4521,35 +4615,32 @@
               <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4560,35 +4651,32 @@
               <c:f>'Segunda Competencia'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>427</c:v>
+                  <c:v>62.993000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.993000000000002</c:v>
+                  <c:v>62.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.58</c:v>
+                  <c:v>62.527500000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.527500000000003</c:v>
+                  <c:v>62.524000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.524000000000001</c:v>
+                  <c:v>86.778999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.778999999999996</c:v>
+                  <c:v>86.495500000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.495500000000007</c:v>
+                  <c:v>86.183999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.183999999999997</c:v>
+                  <c:v>85.991500000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.991500000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>85.581999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -4598,116 +4686,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F14C-4066-9010-1B97C55A2312}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Segunda Competencia'!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Score 
-Kaggle Público</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Segunda Competencia'!$E$3:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>96.251180000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.05180999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>138.5317</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122.92151</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>142.87174999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>125.09153000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>141.89174</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.45158000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.17157</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>139.65171000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F14C-4066-9010-1B97C55A2312}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4780,7 +4758,8 @@
         <c:axId val="1819361754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
+          <c:max val="160"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4837,10 +4816,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.62321029905217695"/>
-          <c:y val="0.16531388494470975"/>
-          <c:w val="0.34567062818336158"/>
-          <c:h val="0.19035669721612672"/>
+          <c:x val="0.11387243827119232"/>
+          <c:y val="0.42760896691192291"/>
+          <c:w val="0.35698924731182796"/>
+          <c:h val="0.24135851870975145"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4974,35 +4953,32 @@
               <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5013,32 +4989,29 @@
               <c:f>'Segunda Competencia'!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>330.74882000000002</c:v>
+                  <c:v>-85.058809999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-85.058809999999994</c:v>
+                  <c:v>-75.951700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-75.951700000000002</c:v>
+                  <c:v>-60.394009999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-60.394009999999994</c:v>
+                  <c:v>-80.347749999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-80.347749999999991</c:v>
+                  <c:v>-38.31253000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38.31253000000001</c:v>
+                  <c:v>-55.396239999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-55.396239999999992</c:v>
+                  <c:v>-42.267580000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-42.267580000000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>-42.180070000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -5413,7 +5386,7 @@
               <c:f>'Segunda Competencia'!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5532,20 +5505,17 @@
               <c:f>'Segunda Competencia'!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>96.251180000000005</c:v>
+                  <c:v>148.05180999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.05180999999999</c:v>
+                  <c:v>138.5317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138.5317</c:v>
+                  <c:v>122.92151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.92151</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>142.87174999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -10663,8 +10633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E6B357-D765-4AE5-80C2-9272AB64D6E1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10715,7 +10685,7 @@
       <c r="G2" s="45"/>
       <c r="H2" s="43"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>44</v>
       </c>
@@ -10929,7 +10899,7 @@
         <v>128.17157</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -10939,7 +10909,7 @@
       <c r="D12" s="12">
         <v>85.581999999999994</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="12">
         <v>139.65171000000001</v>
       </c>
       <c r="F12" s="27"/>

--- a/German/Resumen performance.xlsx
+++ b/German/Resumen performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28289A8-4935-45AC-8DF0-20B14F992442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED537387-2C0C-485E-8E61-CE64A62E42A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primera Competencia" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>N° intento</t>
   </si>
@@ -205,6 +205,9 @@
   <si>
     <t>De la clase 7, quinta mejor solucion del bo de lgbm de la carpeta  con 15000 envios</t>
   </si>
+  <si>
+    <t>FE  (drifing, ma, suma) y BO de LGBM</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +341,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -391,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -532,6 +541,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,96 +1260,72 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Primera Competencia'!$B$3:$B$24</c:f>
+              <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Segunda Competencia'!$H$3:$H$7</c:f>
+              <c:f>'Segunda Competencia'!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>148.05180999999999</c:v>
+                  <c:v>22.94641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.5317</c:v>
+                  <c:v>16.412959999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.92151</c:v>
+                  <c:v>-1.2427799999999962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.87174999999999</c:v>
+                  <c:v>18.124129999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6316499999999934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7685699999999827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.3649199999999837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4128400000000028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8352100000000178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,8 +1450,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39831398120822664"/>
-          <c:y val="0.63289268282180655"/>
+          <c:x val="0.45083757093639637"/>
+          <c:y val="0.26039858553338763"/>
           <c:w val="0.54669776916299806"/>
           <c:h val="0.18760847726153632"/>
         </c:manualLayout>
@@ -4470,7 +4458,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6194047475814245E-2"/>
+          <c:x val="8.1666599824427713E-2"/>
           <c:y val="0.12311719231817335"/>
           <c:w val="0.87915778778925979"/>
           <c:h val="0.79354531503234227"/>
@@ -5013,6 +5001,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-42.180070000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-54.069710000000015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5269,9 +5260,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7512666604280582E-2"/>
-          <c:y val="0.13040316681726261"/>
-          <c:w val="0.87915778778925979"/>
+          <c:x val="8.3125899585132487E-2"/>
+          <c:y val="0.12676017956771796"/>
+          <c:w val="0.91084992134896547"/>
           <c:h val="0.79354531503234227"/>
         </c:manualLayout>
       </c:layout>
@@ -5281,6 +5272,110 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Segunda Competencia'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Score 
+Kaggle Público</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Segunda Competencia'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>148.05180999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.5317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.92151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.87174999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.09153000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.89174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.45158000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.17157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139.65171000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB56-4172-A476-E0882F0D240D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Segunda Competencia'!$G$1:$G$2</c:f>
@@ -5305,218 +5400,72 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Primera Competencia'!$B$3:$B$25</c:f>
+              <c:f>'Segunda Competencia'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Segunda Competencia'!$G$3:$G$7</c:f>
+              <c:f>'Segunda Competencia'!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB56-4172-A476-E0882F0D240D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Segunda Competencia'!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Score 
-Kaggle Público</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Primera Competencia'!$B$3:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>125.10539999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>122.11874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>124.16428999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>124.74762</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>126.72318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>135.12317000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>133.81649999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>125.75873</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Segunda Competencia'!$E$3:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>148.05180999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>138.5317</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122.92151</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>142.87174999999999</c:v>
+                  <c:v>133.81649999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,7 +5546,7 @@
         <c:axId val="1819361754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5654,8 +5603,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.56661720340984545"/>
-          <c:y val="0.60247235489006501"/>
+          <c:x val="0.62547402287787024"/>
+          <c:y val="0.1981007701906114"/>
           <c:w val="0.34283384356242397"/>
           <c:h val="0.19035669721612672"/>
         </c:manualLayout>
@@ -9293,16 +9242,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>280148</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>46423</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>806823</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563497</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>12806</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>597114</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158482</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9332,11 +9281,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>102053</xdr:rowOff>
+      <xdr:colOff>989302</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5610225" cy="3486150"/>
+    <xdr:ext cx="5572123" cy="3602211"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 1" title="Gráfico">
@@ -9364,16 +9313,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>270783</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>922380</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>554132</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>118784</xdr:rowOff>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10633,8 +10582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E6B357-D765-4AE5-80C2-9272AB64D6E1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10649,7 +10598,7 @@
     <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="45" t="s">
         <v>0</v>
@@ -10673,7 +10622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -10685,7 +10634,7 @@
       <c r="G2" s="45"/>
       <c r="H2" s="43"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>44</v>
       </c>
@@ -10705,13 +10654,19 @@
         <f>+D3-E3</f>
         <v>330.74882000000002</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="38">
+        <v>106.90541999999999</v>
+      </c>
       <c r="H3" s="25">
         <f>+E3-G3</f>
-        <v>96.251180000000005</v>
+        <v>-10.654239999999987</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I2:I3" si="0">+G3/1000</f>
+        <v>0.10690541999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="7">
         <v>2</v>
@@ -10726,16 +10681,18 @@
         <v>148.05180999999999</v>
       </c>
       <c r="F4" s="26">
-        <f t="shared" ref="F4:F11" si="0">+D4-E4</f>
+        <f t="shared" ref="F4:F12" si="1">+D4-E4</f>
         <v>-85.058809999999994</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="37">
+        <v>125.10539999999999</v>
+      </c>
       <c r="H4" s="26">
-        <f t="shared" ref="H4:H11" si="1">+E4-G4</f>
-        <v>148.05180999999999</v>
+        <f t="shared" ref="H4:H12" si="2">+E4-G4</f>
+        <v>22.94641</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="7">
         <v>3</v>
@@ -10750,16 +10707,18 @@
         <v>138.5317</v>
       </c>
       <c r="F5" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-75.951700000000002</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="37">
+        <v>122.11874</v>
+      </c>
       <c r="H5" s="26">
-        <f t="shared" si="1"/>
-        <v>138.5317</v>
+        <f t="shared" si="2"/>
+        <v>16.412959999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="7">
         <v>4</v>
@@ -10774,16 +10733,18 @@
         <v>122.92151</v>
       </c>
       <c r="F6" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-60.394009999999994</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37">
+        <v>124.16428999999999</v>
+      </c>
       <c r="H6" s="26">
-        <f t="shared" si="1"/>
-        <v>122.92151</v>
+        <f t="shared" si="2"/>
+        <v>-1.2427799999999962</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="9">
         <v>5</v>
@@ -10798,16 +10759,21 @@
         <v>142.87174999999999</v>
       </c>
       <c r="F7" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-80.347749999999991</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="39">
+        <v>124.74762</v>
+      </c>
       <c r="H7" s="27">
-        <f t="shared" si="1"/>
-        <v>142.87174999999999</v>
+        <f t="shared" si="2"/>
+        <v>18.124129999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>54</v>
+      </c>
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -10821,16 +10787,19 @@
         <v>125.09153000000001</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-38.31253000000001</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38">
+        <v>126.72318</v>
+      </c>
       <c r="H8" s="25">
-        <f t="shared" si="1"/>
-        <v>125.09153000000001</v>
+        <f t="shared" si="2"/>
+        <v>-1.6316499999999934</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -10844,16 +10813,19 @@
         <v>141.89174</v>
       </c>
       <c r="F9" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-55.396239999999992</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="51">
+        <v>135.12317000000002</v>
+      </c>
       <c r="H9" s="26">
-        <f t="shared" si="1"/>
-        <v>141.89174</v>
+        <f t="shared" si="2"/>
+        <v>6.7685699999999827</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="49"/>
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -10867,16 +10839,19 @@
         <v>128.45158000000001</v>
       </c>
       <c r="F10" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-42.267580000000009</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37">
+        <v>133.81649999999999</v>
+      </c>
       <c r="H10" s="26">
-        <f t="shared" si="1"/>
-        <v>128.45158000000001</v>
+        <f t="shared" si="2"/>
+        <v>-5.3649199999999837</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -10890,16 +10865,19 @@
         <v>128.17157</v>
       </c>
       <c r="F11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-42.180070000000001</v>
       </c>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37">
+        <v>125.75873</v>
+      </c>
       <c r="H11" s="26">
-        <f t="shared" si="1"/>
-        <v>128.17157</v>
+        <f t="shared" si="2"/>
+        <v>2.4128400000000028</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -10912,15 +10890,24 @@
       <c r="E12" s="12">
         <v>139.65171000000001</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="27"/>
+      <c r="F12" s="27">
+        <f>+D12-E12</f>
+        <v>-54.069710000000015</v>
+      </c>
+      <c r="G12" s="39">
+        <v>133.81649999999999</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="2"/>
+        <v>5.8352100000000178</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:E7">
     <sortCondition descending="1" ref="E4:E7"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B1:B2"/>
